--- a/StatisticsFirstRun/Vergleiche_FQ_Metric/FQIS_Vergleiche.xlsx
+++ b/StatisticsFirstRun/Vergleiche_FQ_Metric/FQIS_Vergleiche.xlsx
@@ -8,19 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robi\Desktop\datamining_frequent_itemset\StatisticsFirstRun\Vergleiche_FQ_Metric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B249B831-1F11-4C85-AFB2-6292BEF886D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B94EA21-F7B6-4942-AC06-C5B303AA2ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{58427FD8-DC18-4D65-B39A-1F66BDC5AE51}"/>
+    <workbookView xWindow="6150" yWindow="1185" windowWidth="22875" windowHeight="13140" activeTab="1" xr2:uid="{58427FD8-DC18-4D65-B39A-1F66BDC5AE51}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
   <si>
     <t>Vergleich Frequent Itemset bilden:</t>
   </si>
@@ -227,21 +223,6 @@
   </si>
   <si>
     <t>0.00001</t>
-  </si>
-  <si>
-    <t>Spaltenbeschriftungen</t>
-  </si>
-  <si>
-    <t>Gesamtergebnis</t>
-  </si>
-  <si>
-    <t>Zeilenbeschriftungen</t>
-  </si>
-  <si>
-    <t>(Leer)</t>
-  </si>
-  <si>
-    <t>(Alle)</t>
   </si>
   <si>
     <t>4.21</t>
@@ -405,13 +386,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1437,298 +1414,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Robin Buchta" refreshedDate="43959.532780092595" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="21" xr:uid="{345CC896-7FEB-4367-8BC9-175ADC3561DB}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="B17" sheet="Tabelle1"/>
-  </cacheSource>
-  <cacheFields count="3">
-    <cacheField name="Spalten" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
-        <s v="LocationDescription, time, District, month, weekday, PrimaryType"/>
-        <m/>
-        <s v="LocationDescription, time, District, month, weekday, IUCR"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Min-Sup" numFmtId="0">
-      <sharedItems count="11">
-        <s v="0.6"/>
-        <s v="0.5"/>
-        <s v="0.25"/>
-        <s v="0.1"/>
-        <s v="0.05"/>
-        <s v="0.01"/>
-        <s v="0.005"/>
-        <s v="0.001"/>
-        <s v="0.0005"/>
-        <s v="0.0001"/>
-        <s v="0.00001"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Anzahl Itemssets" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="384605" count="17">
-        <n v="0"/>
-        <n v="3"/>
-        <n v="18"/>
-        <n v="53"/>
-        <n v="541"/>
-        <n v="1213"/>
-        <n v="7709"/>
-        <n v="16147"/>
-        <n v="70744"/>
-        <n v="384605"/>
-        <n v="14"/>
-        <n v="47"/>
-        <n v="463"/>
-        <n v="1024"/>
-        <n v="6760"/>
-        <n v="14439"/>
-        <n v="68664"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="21">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="10"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="16"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24A7B97C-0E66-459E-A5FE-05EA54E7018E}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:M8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="12">
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="18">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="11"/>
-        <item x="3"/>
-        <item x="12"/>
-        <item x="4"/>
-        <item x="13"/>
-        <item x="5"/>
-        <item x="14"/>
-        <item x="6"/>
-        <item x="15"/>
-        <item x="7"/>
-        <item x="16"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -2025,129 +1710,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E11A37F-9F9C-4AEA-BE52-5269CC1AE821}">
-  <dimension ref="A1:M8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD02EC3-3783-4D38-9DEC-9F116EBD5A85}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,323 +1731,323 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>42</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="11"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="13"/>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>3</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>44</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="13"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>18</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="13"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>53</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="13"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>541</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="13"/>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>1213</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="13"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>7709</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="13"/>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>16147</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="13"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>70744</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="14"/>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>384605</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="12"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="6" t="str">
+      <c r="D14" s="4" t="str">
         <f t="shared" ref="D14:D23" si="0">D2</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>52</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="11"/>
-      <c r="D15" s="9" t="str">
+      <c r="C15" s="9"/>
+      <c r="D15" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="13"/>
-      <c r="D16" s="10" t="str">
+      <c r="C16" s="11"/>
+      <c r="D16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>3</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>53</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="13"/>
-      <c r="D17" s="9" t="str">
+      <c r="C17" s="11"/>
+      <c r="D17" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>14</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="13"/>
-      <c r="D18" s="10" t="str">
+      <c r="C18" s="11"/>
+      <c r="D18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="4">
         <v>47</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>55</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="13"/>
-      <c r="D19" s="9" t="str">
+      <c r="C19" s="11"/>
+      <c r="D19" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>463</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="13"/>
-      <c r="D20" s="10" t="str">
+      <c r="C20" s="11"/>
+      <c r="D20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0.005</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <v>1024</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>57</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="13"/>
-      <c r="D21" s="9" t="str">
+      <c r="C21" s="11"/>
+      <c r="D21" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0.001</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>6760</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="13"/>
-      <c r="D22" s="10" t="str">
+      <c r="C22" s="11"/>
+      <c r="D22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>0.0005</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="4">
         <v>14439</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>59</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="13"/>
-      <c r="D23" s="9" t="str">
+      <c r="C23" s="11"/>
+      <c r="D23" s="7" t="str">
         <f t="shared" si="0"/>
         <v>0.0001</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="2">
         <v>68664</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="14"/>
-      <c r="D24" s="10" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="4">
         <v>463364</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>68</v>
+      <c r="F24" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2627,11 +2194,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F083D0-1F6D-4E17-94AA-143F89735623}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
@@ -2648,17 +2215,17 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2669,13 +2236,13 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -2695,7 +2262,7 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2717,7 +2284,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2728,7 +2295,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -2739,7 +2306,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F11">
         <v>12</v>
@@ -2963,13 +2530,13 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -2989,7 +2556,7 @@
         <v>32</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F29">
         <v>4</v>
@@ -3000,7 +2567,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -3011,7 +2578,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -3022,7 +2589,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -3033,7 +2600,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F33">
         <v>0</v>
